--- a/biology/Botanique/Sisymbre/Sisymbre.xlsx
+++ b/biology/Botanique/Sisymbre/Sisymbre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sisymbrium
 Les sisymbres (genre Sisymbrium) appartiennent à la vaste famille des brassicacées. Comme c'est souvent le cas chez les crucifères, le genre se distingue par les caractéristiques de ses fruits (en l'occurrence des siliques) : chaque valve de la silique est parcourue de bout en bout par trois nervures principales. Les fleurs sont très petites, de couleur jaune ou jaunâtre. 
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre vient du grec σισύμϐριον / Sisymvrion, qui désignait une sorte de cresson.
 </t>
@@ -545,7 +559,9 @@
           <t>Principales espèces du genre Sisymbrium en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sisymbrium altissimum
 Sisymbrium austriacum, le Sisymbre d'Autriche
